--- a/JsDev/DD_POC_v2/productOwnerWorkRequests/WorkRequest_WorkFlows-End-to-End_Tests.xlsx
+++ b/JsDev/DD_POC_v2/productOwnerWorkRequests/WorkRequest_WorkFlows-End-to-End_Tests.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mark\JsDev\DD_POC_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DD_Repos\dd-cx-test\productOwnerWorkRequests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="16815" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="1650" windowWidth="16815" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="Senior" sheetId="1" r:id="rId1"/>
-    <sheet name="DHMO non-senior" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DHMO non-senior" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="-Deprecated- Senior" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t xml:space="preserve">Scenario </t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>Payment page should appear</t>
+  </si>
+  <si>
+    <t>Start with the value in the Data Colum.  Yes, select 95148  with 4 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the URL server:3000/enroll    or   what ever URL is necessary that takes you to the similar page to how AWS DEV STARTS   </t>
+  </si>
+  <si>
+    <t>example : https://mot.deltadentalins.com/enroll/         or    https://dit3.deltadentalins.com/enroll   I think you get the example</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,6 +448,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,10 +736,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>94106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="5">
+        <v>29221</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D30" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C14:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
+      <c r="G14">
+        <f>PRODUCT(C14:F14)</f>
+        <v>3888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,464 +1606,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <v>94106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="5">
-        <v>29221</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C14:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>72</v>
-      </c>
-      <c r="F14">
-        <v>0.75</v>
-      </c>
-      <c r="G14">
-        <f>PRODUCT(C14:F14)</f>
-        <v>3888</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>